--- a/pesantren/kesantrian/lpj bagian bahasa.xlsx
+++ b/pesantren/kesantrian/lpj bagian bahasa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C87987-BCAA-4394-8FB2-ACE04FE699D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF8A771-B709-4614-AF18-B75C40D07634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Nama Program</t>
   </si>
@@ -28,15 +28,6 @@
     <t>Waktu</t>
   </si>
   <si>
-    <t>Nama Pengajar</t>
-  </si>
-  <si>
-    <t>Materi Pembelajaran</t>
-  </si>
-  <si>
-    <t>Peserta</t>
-  </si>
-  <si>
     <t>Absensi</t>
   </si>
   <si>
@@ -46,10 +37,49 @@
     <t>Evaluasi</t>
   </si>
   <si>
-    <t>Catatan Tambahan</t>
-  </si>
-  <si>
-    <t>Nomor</t>
+    <t>Muhadoroh</t>
+  </si>
+  <si>
+    <t>Mufrodat baru</t>
+  </si>
+  <si>
+    <t>Hiwar</t>
+  </si>
+  <si>
+    <t>Malam Ahad ke-1 dan 2</t>
+  </si>
+  <si>
+    <t>Percakapan sehari-hari</t>
+  </si>
+  <si>
+    <t>Senin sampai Sabtu: Setelah Dzuhur
+Ahad: Pagi</t>
+  </si>
+  <si>
+    <t>Putra: 50%
+Putri: Belum berjalan</t>
+  </si>
+  <si>
+    <t>Putra: Satu kali tidak dilaksanakan karena banyak yang sakit
+Putri: Masih persiapan</t>
+  </si>
+  <si>
+    <t>Senin sampai Sabtu</t>
+  </si>
+  <si>
+    <t>Putra: Untuk habis Dzuhur, santri suaranya harus lebih nyaring</t>
+  </si>
+  <si>
+    <t>Setiap hari</t>
+  </si>
+  <si>
+    <t>Putra &amp; Putri: Efektif dilaksanakan saat jam halaqoh saja</t>
+  </si>
+  <si>
+    <t>Putra &amp; Putri: Belum beli kamus &amp; buku catatan</t>
+  </si>
+  <si>
+    <t>Putra &amp; Putri: 100%</t>
   </si>
 </sst>
 </file>
@@ -93,9 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,47 +409,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/pesantren/kesantrian/lpj bagian bahasa.xlsx
+++ b/pesantren/kesantrian/lpj bagian bahasa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF8A771-B709-4614-AF18-B75C40D07634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937191AB-DFB5-4FC8-A1CE-14922C07364D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Nama Program</t>
   </si>
@@ -56,14 +56,6 @@
 Ahad: Pagi</t>
   </si>
   <si>
-    <t>Putra: 50%
-Putri: Belum berjalan</t>
-  </si>
-  <si>
-    <t>Putra: Satu kali tidak dilaksanakan karena banyak yang sakit
-Putri: Masih persiapan</t>
-  </si>
-  <si>
     <t>Senin sampai Sabtu</t>
   </si>
   <si>
@@ -73,13 +65,13 @@
     <t>Setiap hari</t>
   </si>
   <si>
-    <t>Putra &amp; Putri: Efektif dilaksanakan saat jam halaqoh saja</t>
-  </si>
-  <si>
     <t>Putra &amp; Putri: Belum beli kamus &amp; buku catatan</t>
   </si>
   <si>
     <t>Putra &amp; Putri: 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      </t>
   </si>
 </sst>
 </file>
@@ -412,7 +404,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -449,21 +441,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -474,10 +464,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -485,10 +475,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
